--- a/Timing/Timing.xlsx
+++ b/Timing/Timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Programming\Python\KesPythonStudy\Timing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E36E8B-6E04-41FD-BE40-4D1AE1A0E262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75851A0D-CDE0-46F5-BA4E-672C7836ABC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -63,15 +63,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,14 +85,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -367,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,27 +404,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>45050.270833333336</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>45050.291666666664</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <f>(B2-A2)*24*60</f>
         <v>29.999999993015081</v>
       </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45051.331944444442</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45051.364583333336</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C26" si="0">(B3-A3)*24*60</f>
+        <v>47.000000006519258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
